--- a/en/downloads/data-excel/16.6.1.xlsx
+++ b/en/downloads/data-excel/16.6.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -105,26 +105,9 @@
     <t>2018 утв.</t>
   </si>
   <si>
-    <t>2018 факт (предв.)</t>
-  </si>
-  <si>
     <t>2019 утв.</t>
   </si>
   <si>
-    <t>2019 уточн.</t>
-  </si>
-  <si>
-    <t>2020
-прогноз</t>
-  </si>
-  <si>
-    <t>2021
-прогноз</t>
-  </si>
-  <si>
-    <t>2022 прогноз</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2012 факт </t>
   </si>
   <si>
@@ -201,6 +184,24 @@
   </si>
   <si>
     <t>*according to the MF KR</t>
+  </si>
+  <si>
+    <t>2020 утв.</t>
+  </si>
+  <si>
+    <t>2020 факт</t>
+  </si>
+  <si>
+    <t>2021 утв.</t>
+  </si>
+  <si>
+    <t>2021 факт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 факт </t>
+  </si>
+  <si>
+    <t>2019 факт</t>
   </si>
 </sst>
 </file>
@@ -697,9 +698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -708,18 +711,18 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="66.75" customHeight="1">
+    <row r="1" spans="1:39" ht="66.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="12.75" thickBot="1">
+    <row r="2" spans="1:39" ht="12.75" thickBot="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -756,8 +759,11 @@
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
     </row>
-    <row r="3" spans="1:36" ht="24.75" thickBot="1">
+    <row r="3" spans="1:39" ht="24.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -789,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>14</v>
@@ -834,7 +840,7 @@
         <v>27</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>24</v>
@@ -843,50 +849,59 @@
         <v>28</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AD3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="AG3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="15" customHeight="1">
+    <row r="4" spans="1:39" ht="15" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15" customHeight="1">
+    <row r="5" spans="1:39" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" s="8">
         <v>10976.2</v>
@@ -970,33 +985,42 @@
         <v>102.2</v>
       </c>
       <c r="AE5" s="1">
-        <v>43930.7</v>
+        <v>43737.8</v>
       </c>
       <c r="AF5" s="1">
-        <v>44753.9</v>
+        <v>43258.3</v>
       </c>
       <c r="AG5" s="1">
+        <v>98.9</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>46293.5</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>47153.5</v>
+      </c>
+      <c r="AJ5" s="1">
         <v>101.9</v>
       </c>
-      <c r="AH5" s="1">
-        <v>54648.2</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>54867.5</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>59873</v>
+      <c r="AK5" s="1">
+        <v>47483.3</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>52020.5</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>109.6</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15" customHeight="1">
+    <row r="6" spans="1:39" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="10">
         <v>8551</v>
@@ -1080,33 +1104,42 @@
         <v>80.099999999999994</v>
       </c>
       <c r="AE6" s="1">
-        <v>16002.9</v>
+        <v>6265.4</v>
       </c>
       <c r="AF6" s="1">
-        <v>16887.900000000001</v>
+        <v>4434.6000000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>105.5</v>
+        <v>70.8</v>
       </c>
       <c r="AH6" s="1">
-        <v>16002.7</v>
+        <v>7935.8</v>
       </c>
       <c r="AI6" s="1">
-        <v>14389.2</v>
+        <v>3895.8</v>
       </c>
       <c r="AJ6" s="1">
-        <v>18971</v>
+        <v>49.1</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>8997</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>6212.4</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15" customHeight="1">
+    <row r="7" spans="1:39" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1">
         <v>441.9</v>
@@ -1190,33 +1223,42 @@
         <v>111.5</v>
       </c>
       <c r="AE7" s="1">
-        <v>811.5</v>
+        <v>728.5</v>
       </c>
       <c r="AF7" s="1">
-        <v>847</v>
+        <v>695.7</v>
       </c>
       <c r="AG7" s="1">
-        <v>104.4</v>
+        <v>95.5</v>
       </c>
       <c r="AH7" s="1">
-        <v>827</v>
+        <v>746.9</v>
       </c>
       <c r="AI7" s="1">
-        <v>812.2</v>
+        <v>583.20000000000005</v>
       </c>
       <c r="AJ7" s="1">
-        <v>813.8</v>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>639.20000000000005</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>600.79999999999995</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15" customHeight="1">
+    <row r="8" spans="1:39" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10">
         <v>1735.9</v>
@@ -1300,33 +1342,42 @@
         <v>132.30000000000001</v>
       </c>
       <c r="AE8" s="1">
-        <v>1249.9000000000001</v>
+        <v>1249</v>
       </c>
       <c r="AF8" s="1">
-        <v>1771.1</v>
+        <v>1244.7</v>
       </c>
       <c r="AG8" s="1">
-        <v>141.69999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AH8" s="1">
-        <v>1249.9000000000001</v>
+        <v>1249</v>
       </c>
       <c r="AI8" s="1">
-        <v>1251</v>
+        <v>1207.5999999999999</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1253.4000000000001</v>
+        <v>96.7</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>1208.0999999999999</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>1332.7</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>110.3</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15" customHeight="1">
+    <row r="9" spans="1:39" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10">
         <v>5557</v>
@@ -1410,33 +1461,42 @@
         <v>105.4</v>
       </c>
       <c r="AE9" s="1">
-        <v>2592.6999999999998</v>
+        <v>2582.6</v>
       </c>
       <c r="AF9" s="1">
-        <v>3256.4</v>
+        <v>2477.5</v>
       </c>
       <c r="AG9" s="1">
-        <v>125.6</v>
+        <v>95.9</v>
       </c>
       <c r="AH9" s="1">
-        <v>3318.5</v>
+        <v>3109</v>
       </c>
       <c r="AI9" s="1">
-        <v>3796.9</v>
+        <v>3225.2</v>
       </c>
       <c r="AJ9" s="1">
-        <v>3804.3</v>
+        <v>103.7</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>3131.3</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>4833.7</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>154.4</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="26.25" customHeight="1">
+    <row r="10" spans="1:39" ht="26.25" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D10" s="10">
         <v>1129.2</v>
@@ -1520,33 +1580,42 @@
         <v>119.4</v>
       </c>
       <c r="AE10" s="1">
-        <v>2730</v>
+        <v>2686.4</v>
       </c>
       <c r="AF10" s="1">
-        <v>3571.3</v>
+        <v>2829</v>
       </c>
       <c r="AG10" s="1">
-        <v>130.80000000000001</v>
+        <v>105.3</v>
       </c>
       <c r="AH10" s="1">
-        <v>2886.5</v>
+        <v>2993.4</v>
       </c>
       <c r="AI10" s="1">
-        <v>2738.6</v>
+        <v>2624.5</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2744</v>
+        <v>87.7</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>2798.4</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>3088</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>110.3</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15" customHeight="1">
+    <row r="11" spans="1:39" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11" s="10">
         <v>2662.4</v>
@@ -1630,33 +1699,42 @@
         <v>106.4</v>
       </c>
       <c r="AE11" s="1">
-        <v>23599.3</v>
+        <v>23397.4</v>
       </c>
       <c r="AF11" s="1">
-        <v>26924.7</v>
+        <v>24364.799999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>114.1</v>
+        <v>104.1</v>
       </c>
       <c r="AH11" s="1">
-        <v>30901.599999999999</v>
+        <v>30085.9</v>
       </c>
       <c r="AI11" s="1">
-        <v>30639.4</v>
+        <v>29223.5</v>
       </c>
       <c r="AJ11" s="1">
-        <v>30698.9</v>
+        <v>97.1</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>30439.7</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>30705.3</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>100.9</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12" s="9">
         <v>10636</v>
@@ -1740,33 +1818,42 @@
         <v>89.4</v>
       </c>
       <c r="AE12" s="5">
-        <v>13148.1</v>
+        <v>13137.1</v>
       </c>
       <c r="AF12" s="5">
-        <v>11881.8</v>
+        <v>10924.7</v>
       </c>
       <c r="AG12" s="5">
-        <v>90.4</v>
+        <v>83.2</v>
       </c>
       <c r="AH12" s="5">
-        <v>12001</v>
+        <v>12158.7</v>
       </c>
       <c r="AI12" s="5">
-        <v>11527</v>
+        <v>10980.3</v>
       </c>
       <c r="AJ12" s="5">
-        <v>11530.1</v>
+        <v>90.3</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>11664.9</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>11939.1</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>102.4</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/16.6.1.xlsx
+++ b/en/downloads/data-excel/16.6.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -58,12 +58,6 @@
     <t>* по данным МФ КР</t>
   </si>
   <si>
-    <t>16.6.1 Primary government expenditures as a proportion of original approved budget, by sector (or by budget codes or similar)</t>
-  </si>
-  <si>
-    <t>16.6.1 Секторлор боюнча баштапкы бекитилген бюджетке карата пайыздык катыш менен өкмөттүн алгачкы чыгымдары (же бюджеттик классификациянын коддору  же аналогиялык категориялар боюнча)</t>
-  </si>
-  <si>
     <t>Тармактар боюнча бюджеттин чыгымдары</t>
   </si>
   <si>
@@ -122,6 +116,21 @@
   </si>
   <si>
     <t>*according to the MF KR</t>
+  </si>
+  <si>
+    <t>16.6.1 Секторлор боюнча баштапкы бекитилген бюджетке карата пайыздык катыш менен өкмөттүн алгачкы чыгымдары (же бюджеттик классификациянын коддору  же аналогиялык категориялар боюнча)*</t>
+  </si>
+  <si>
+    <t>16.6.1 Primary government expenditures as a proportion of original approved budget, by sector (or by budget codes or similar)*</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percents)</t>
   </si>
 </sst>
 </file>
@@ -133,7 +142,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +216,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,7 +275,7 @@
     <xf numFmtId="40" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -280,6 +297,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -606,517 +629,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="38" style="1" customWidth="1"/>
+    <col min="1" max="3" width="38.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="66.75" customHeight="1">
+    <row r="1" spans="1:17" ht="66.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2010</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2011</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2013</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2014</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2015</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2016</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2017</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2018</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2019</v>
+      </c>
+      <c r="N4" s="6">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2021</v>
+      </c>
+      <c r="P4" s="6">
+        <v>2022</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="12.75" thickBot="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2010</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2011</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2012</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2013</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2014</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2015</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2016</v>
-      </c>
-      <c r="K3" s="6">
-        <v>2017</v>
-      </c>
-      <c r="L3" s="6">
-        <v>2018</v>
-      </c>
-      <c r="M3" s="6">
-        <v>2019</v>
-      </c>
-      <c r="N3" s="6">
-        <v>2020</v>
-      </c>
-      <c r="O3" s="6">
-        <v>2021</v>
-      </c>
-      <c r="P3" s="6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>101.9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>98.1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>99.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>98.9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>96.9</v>
+      </c>
+      <c r="J6" s="1">
+        <v>98.7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>100.4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>102.2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>98.9</v>
+      </c>
+      <c r="N6" s="1">
+        <v>101.9</v>
+      </c>
+      <c r="O6" s="1">
+        <v>109.6</v>
+      </c>
+      <c r="P6" s="1">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="D7" s="1">
+        <v>62.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>98.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>99.4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>94.8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>165.3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>94.9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="M7" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="N7" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>69</v>
+      </c>
+      <c r="P7" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D8" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>99.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>99.9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>98.7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>93.6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="K8" s="1">
         <v>101.9</v>
       </c>
-      <c r="E5" s="1">
-        <v>98.1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="L8" s="1">
+        <v>111.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>95.5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O8" s="1">
+        <v>94</v>
+      </c>
+      <c r="P8" s="1">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>98.8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>96.3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="H9" s="1">
         <v>99.5</v>
       </c>
-      <c r="G5" s="1">
-        <v>98.9</v>
-      </c>
-      <c r="H5" s="1">
-        <v>97.5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>96.9</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I9" s="1">
+        <v>95</v>
+      </c>
+      <c r="J9" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>136.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>96.7</v>
+      </c>
+      <c r="O9" s="1">
+        <v>110.3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>227.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
+        <v>99.8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>98.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>99.6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>97.3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>96.2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>98.4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="K10" s="1">
+        <v>124.3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>105.4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>95.9</v>
+      </c>
+      <c r="N10" s="1">
+        <v>103.7</v>
+      </c>
+      <c r="O10" s="1">
+        <v>154.4</v>
+      </c>
+      <c r="P10" s="1">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>99</v>
+      </c>
+      <c r="E11" s="1">
+        <v>97.8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>99.1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>98.8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>97.8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>123.6</v>
+      </c>
+      <c r="K11" s="1">
+        <v>172.2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>119.4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>105.3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="O11" s="1">
+        <v>110.3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>98.6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>98.8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>99.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>99.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>97.3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>112.8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>106.4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>104.1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>100.9</v>
+      </c>
+      <c r="P12" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4">
+        <v>98.8</v>
+      </c>
+      <c r="E13" s="4">
         <v>98.7</v>
       </c>
-      <c r="K5" s="1">
-        <v>100.4</v>
-      </c>
-      <c r="L5" s="1">
-        <v>102.2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>98.9</v>
-      </c>
-      <c r="N5" s="1">
-        <v>101.9</v>
-      </c>
-      <c r="O5" s="1">
-        <v>109.6</v>
-      </c>
-      <c r="P5" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1">
-        <v>62.9</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="F13" s="4">
+        <v>96.2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>97.8</v>
+      </c>
+      <c r="H13" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="I13" s="4">
         <v>98.4</v>
       </c>
-      <c r="F6" s="1">
-        <v>99.4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>95.7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>84.8</v>
-      </c>
-      <c r="I6" s="1">
-        <v>94.8</v>
-      </c>
-      <c r="J6" s="1">
-        <v>165.3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>94.9</v>
-      </c>
-      <c r="L6" s="1">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="M6" s="1">
-        <v>70.8</v>
-      </c>
-      <c r="N6" s="1">
-        <v>49.1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>69</v>
-      </c>
-      <c r="P6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1">
-        <v>94.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>99.2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>99.9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>91.7</v>
-      </c>
-      <c r="H7" s="1">
-        <v>98.7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>93.6</v>
-      </c>
-      <c r="J7" s="1">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="K7" s="1">
-        <v>101.9</v>
-      </c>
-      <c r="L7" s="1">
-        <v>111.5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>95.5</v>
-      </c>
-      <c r="N7" s="1">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="O7" s="1">
-        <v>94</v>
-      </c>
-      <c r="P7" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1">
-        <v>98.8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>96.3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100</v>
-      </c>
-      <c r="G8" s="1">
-        <v>98.2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>99.5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>95</v>
-      </c>
-      <c r="J8" s="1">
-        <v>32.5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>136.5</v>
-      </c>
-      <c r="L8" s="1">
-        <v>132.30000000000001</v>
-      </c>
-      <c r="M8" s="1">
-        <v>99.7</v>
-      </c>
-      <c r="N8" s="1">
-        <v>96.7</v>
-      </c>
-      <c r="O8" s="1">
-        <v>110.3</v>
-      </c>
-      <c r="P8" s="1">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>98.8</v>
-      </c>
-      <c r="F9" s="1">
-        <v>99.6</v>
-      </c>
-      <c r="G9" s="1">
-        <v>97.3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>96.2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>98.4</v>
-      </c>
-      <c r="J9" s="1">
-        <v>89.8</v>
-      </c>
-      <c r="K9" s="1">
-        <v>124.3</v>
-      </c>
-      <c r="L9" s="1">
-        <v>105.4</v>
-      </c>
-      <c r="M9" s="1">
-        <v>95.9</v>
-      </c>
-      <c r="N9" s="1">
-        <v>103.7</v>
-      </c>
-      <c r="O9" s="1">
-        <v>154.4</v>
-      </c>
-      <c r="P9" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1">
-        <v>99</v>
-      </c>
-      <c r="E10" s="1">
-        <v>97.8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>99.1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>98.8</v>
-      </c>
-      <c r="H10" s="1">
-        <v>95.8</v>
-      </c>
-      <c r="I10" s="1">
-        <v>97.8</v>
-      </c>
-      <c r="J10" s="1">
-        <v>123.6</v>
-      </c>
-      <c r="K10" s="1">
-        <v>172.2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>119.4</v>
-      </c>
-      <c r="M10" s="1">
-        <v>105.3</v>
-      </c>
-      <c r="N10" s="1">
-        <v>87.7</v>
-      </c>
-      <c r="O10" s="1">
-        <v>110.3</v>
-      </c>
-      <c r="P10" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="J13" s="4">
+        <v>97.2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>89.4</v>
+      </c>
+      <c r="M13" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>90.3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>102.4</v>
+      </c>
+      <c r="P13" s="4">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1">
-        <v>98.6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>98.8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>99.5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>96.8</v>
-      </c>
-      <c r="H11" s="1">
-        <v>99.5</v>
-      </c>
-      <c r="I11" s="1">
-        <v>97.3</v>
-      </c>
-      <c r="J11" s="1">
-        <v>83.7</v>
-      </c>
-      <c r="K11" s="1">
-        <v>112.8</v>
-      </c>
-      <c r="L11" s="1">
-        <v>106.4</v>
-      </c>
-      <c r="M11" s="1">
-        <v>104.1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>97.1</v>
-      </c>
-      <c r="O11" s="1">
-        <v>100.9</v>
-      </c>
-      <c r="P11" s="1">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" s="4">
-        <v>98.8</v>
-      </c>
-      <c r="E12" s="4">
-        <v>98.7</v>
-      </c>
-      <c r="F12" s="4">
-        <v>96.2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>97.8</v>
-      </c>
-      <c r="H12" s="4">
-        <v>94.9</v>
-      </c>
-      <c r="I12" s="4">
-        <v>98.4</v>
-      </c>
-      <c r="J12" s="4">
-        <v>97.2</v>
-      </c>
-      <c r="K12" s="4">
-        <v>90.5</v>
-      </c>
-      <c r="L12" s="4">
-        <v>89.4</v>
-      </c>
-      <c r="M12" s="4">
-        <v>83.2</v>
-      </c>
-      <c r="N12" s="4">
-        <v>90.3</v>
-      </c>
-      <c r="O12" s="4">
-        <v>102.4</v>
-      </c>
-      <c r="P12" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
